--- a/output/analysis_out/830/run_pernode_work830_without_zero.xlsx
+++ b/output/analysis_out/830/run_pernode_work830_without_zero.xlsx
@@ -8,77 +8,73 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
-    <t>视频数</t>
+    <t>video_count</t>
   </si>
   <si>
-    <t>编号</t>
+    <t>name</t>
   </si>
   <si>
-    <t>未激活levle_1</t>
+    <t>level_1</t>
   </si>
   <si>
-    <t>正确</t>
+    <t>right</t>
   </si>
   <si>
-    <t>错误</t>
+    <t>err</t>
   </si>
   <si>
-    <t>未激活levle_2</t>
+    <t>level_2</t>
   </si>
   <si>
-    <t>未激活_levle_3</t>
+    <t>level_3</t>
   </si>
   <si>
-    <t>未激活_levle_4</t>
+    <t>level_4</t>
   </si>
   <si>
-    <t>激活1</t>
+    <t>work_1</t>
   </si>
   <si>
-    <t>正确率1</t>
+    <t>per_rg1</t>
   </si>
   <si>
-    <t>激活2</t>
+    <t>work_2</t>
   </si>
   <si>
-    <t>正确率2</t>
+    <t>per_rg2</t>
   </si>
   <si>
-    <t>激活3</t>
+    <t>work_3</t>
   </si>
   <si>
-    <t>正确率3</t>
+    <t>per_rg3</t>
   </si>
   <si>
-    <t>总正确</t>
+    <t>all_rg</t>
   </si>
   <si>
-    <t>总错误</t>
+    <t>all_err</t>
   </si>
   <si>
-    <t>总正确率</t>
+    <t>per_all_rg</t>
   </si>
   <si>
     <t>level 1</t>
   </si>
   <si>
-    <t>level_2</t>
+    <t>feedback_dff_level</t>
   </si>
   <si>
-    <t>各级分类型产生反馈个数</t>
-  </si>
-  <si>
-    <t>分类型产生反馈个数</t>
+    <t>feedback_all</t>
   </si>
 </sst>
 </file>
@@ -1056,8 +1052,8 @@
   <sheetPr/>
   <dimension ref="A1:AR501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AQ4" sqref="AQ4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1158,13 +1154,13 @@
       </c>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -48293,21 +48289,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>